--- a/完成体を入れろ/PM演習_設計書_赤岡.xlsx
+++ b/完成体を入れろ/PM演習_設計書_赤岡.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akaoka\Documents\GitHub\PM-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akaoka\Documents\GitHub\PM-\完成体を入れろ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="164">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -1318,13 +1318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>検索</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>過去問・シラバス表示</t>
     <rPh sb="0" eb="3">
       <t>カコモン</t>
@@ -1536,6 +1529,61 @@
   </si>
   <si>
     <t>○○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いいえ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主</t>
+    <rPh sb="0" eb="1">
+      <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>syusseki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kyoukasyo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2317,6 +2365,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2407,7 +2470,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2416,19 +2485,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2440,11 +2506,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2467,53 +2551,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7002,10 +7050,10 @@
       <c r="O1" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="67"/>
+      <c r="Q1" s="72"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
@@ -7022,11 +7070,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="79"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
@@ -7071,17 +7119,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -7092,15 +7140,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -7111,15 +7159,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -7167,19 +7215,19 @@
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
@@ -7188,17 +7236,17 @@
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
@@ -7207,17 +7255,17 @@
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
@@ -7227,17 +7275,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -7248,15 +7296,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -7267,15 +7315,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -7286,15 +7334,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -7305,15 +7353,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -7344,15 +7392,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="77" t="s">
+      <c r="F19" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
       <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -7365,13 +7413,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
       <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -7384,13 +7432,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
       <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -7403,13 +7451,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -7422,13 +7470,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="82"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
       <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -7441,13 +7489,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
       <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -7460,13 +7508,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
       <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -7479,13 +7527,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
       <c r="M26" s="46"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -7541,14 +7589,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="80" t="s">
+      <c r="K29" s="85" t="s">
         <v>82</v>
       </c>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="82"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
       <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -7562,18 +7610,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="68" t="s">
+      <c r="K30" s="73" t="s">
         <v>80</v>
       </c>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69" t="s">
+      <c r="L30" s="74"/>
+      <c r="M30" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69" t="s">
+      <c r="N30" s="74"/>
+      <c r="O30" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="P30" s="74"/>
+      <c r="P30" s="79"/>
       <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -7587,12 +7635,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="80"/>
       <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -7606,12 +7654,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="50"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -7625,12 +7673,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="80"/>
       <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -7644,12 +7692,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -7663,12 +7711,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="80"/>
       <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7682,12 +7730,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="73"/>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="76"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="81"/>
       <c r="Q36" s="50"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -7760,26 +7808,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_外部!D10</f>
         <v>（システム名をここに記入すると全体に反映される）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -8573,26 +8621,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_外部!D10</f>
         <v>（システム名をここに記入すると全体に反映される）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -8695,20 +8743,20 @@
       <c r="D7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="98" t="s">
+      <c r="E7" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="98" t="s">
+      <c r="F7" s="107"/>
+      <c r="G7" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="98" t="s">
+      <c r="H7" s="107"/>
+      <c r="I7" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="99"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="107"/>
       <c r="M7" s="38" t="s">
         <v>19</v>
       </c>
@@ -8728,20 +8776,20 @@
         <f>ROW()-7</f>
         <v>1</v>
       </c>
-      <c r="E8" s="96" t="s">
+      <c r="E8" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="96" t="s">
+      <c r="F8" s="104"/>
+      <c r="G8" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="97"/>
-      <c r="I8" s="96" t="s">
+      <c r="H8" s="104"/>
+      <c r="I8" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="97"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="104"/>
       <c r="M8" s="23" t="s">
         <v>28</v>
       </c>
@@ -8761,18 +8809,18 @@
         <f t="shared" ref="D9:D21" si="0">ROW()-7</f>
         <v>2</v>
       </c>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="96" t="s">
+      <c r="E9" s="102"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="96" t="s">
+      <c r="H9" s="104"/>
+      <c r="I9" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="97"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="104"/>
       <c r="M9" s="23" t="s">
         <v>29</v>
       </c>
@@ -8792,18 +8840,18 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="96" t="s">
+      <c r="E10" s="102"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="97"/>
-      <c r="I10" s="96" t="s">
+      <c r="H10" s="104"/>
+      <c r="I10" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="97"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="104"/>
       <c r="M10" s="23" t="s">
         <v>30</v>
       </c>
@@ -8823,18 +8871,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="96" t="s">
+      <c r="E11" s="102"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="97"/>
-      <c r="I11" s="96" t="s">
+      <c r="H11" s="104"/>
+      <c r="I11" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
-      <c r="L11" s="97"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
+      <c r="L11" s="104"/>
       <c r="M11" s="23" t="s">
         <v>64</v>
       </c>
@@ -8854,18 +8902,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="96" t="s">
+      <c r="F12" s="104"/>
+      <c r="G12" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="97"/>
-      <c r="I12" s="96"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="97"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="104"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
       <c r="O12" s="23"/>
@@ -8879,14 +8927,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
-      <c r="L13" s="97"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="104"/>
       <c r="M13" s="23"/>
       <c r="N13" s="23"/>
       <c r="O13" s="23"/>
@@ -8900,14 +8948,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14" s="96"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="96"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="101"/>
-      <c r="L14" s="97"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="104"/>
       <c r="M14" s="23"/>
       <c r="N14" s="23"/>
       <c r="O14" s="23"/>
@@ -8921,14 +8969,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="101"/>
-      <c r="L15" s="97"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="104"/>
       <c r="M15" s="23"/>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
@@ -8942,14 +8990,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E16" s="96"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="101"/>
-      <c r="L16" s="97"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="104"/>
       <c r="M16" s="23"/>
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
@@ -8963,14 +9011,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="97"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="104"/>
       <c r="M17" s="23"/>
       <c r="N17" s="23"/>
       <c r="O17" s="23"/>
@@ -8984,14 +9032,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E18" s="96"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="96"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
-      <c r="L18" s="97"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="104"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -9005,14 +9053,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="101"/>
-      <c r="L19" s="97"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="103"/>
+      <c r="K19" s="103"/>
+      <c r="L19" s="104"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -9026,14 +9074,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="101"/>
-      <c r="L20" s="97"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="103"/>
+      <c r="L20" s="104"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -9047,14 +9095,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E21" s="96"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="97"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="104"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -9065,14 +9113,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="100"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -9411,41 +9459,6 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -9462,6 +9475,41 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G10:H10"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -9509,26 +9557,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_外部!D10</f>
         <v>（システム名をここに記入すると全体に反映される）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -9631,21 +9679,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="98" t="s">
+      <c r="D7" s="113"/>
+      <c r="E7" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="99"/>
-      <c r="G7" s="108" t="s">
+      <c r="F7" s="107"/>
+      <c r="G7" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="109"/>
+      <c r="J7" s="109"/>
+      <c r="K7" s="109"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>70</v>
@@ -9657,21 +9705,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="105" t="s">
+      <c r="D8" s="110"/>
+      <c r="E8" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="106"/>
-      <c r="G8" s="107" t="s">
+      <c r="F8" s="112"/>
+      <c r="G8" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -9681,21 +9729,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="104" t="s">
+      <c r="C9" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="105" t="s">
+      <c r="D9" s="110"/>
+      <c r="E9" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="106"/>
-      <c r="G9" s="107" t="s">
+      <c r="F9" s="112"/>
+      <c r="G9" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -9705,19 +9753,19 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="105" t="s">
+      <c r="D10" s="110"/>
+      <c r="E10" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="106"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
+      <c r="F10" s="112"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -9727,15 +9775,15 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -9745,15 +9793,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -9763,15 +9811,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -9781,15 +9829,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -9799,15 +9847,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="107"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>75</v>
@@ -9819,15 +9867,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="108"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -10274,16 +10322,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E8:F8"/>
@@ -10300,13 +10345,16 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10325,7 +10373,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="110" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -10343,26 +10391,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_外部!D10</f>
         <v>（システム名をここに記入すると全体に反映される）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -11112,26 +11160,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_外部!D10</f>
         <v>（システム名をここに記入すると全体に反映される）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="98" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
@@ -11236,11 +11284,11 @@
         <v>119</v>
       </c>
       <c r="F7" s="26"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
       <c r="L7" s="8"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -11254,10 +11302,10 @@
       <c r="D8" s="27"/>
       <c r="E8" s="26"/>
       <c r="F8" s="26"/>
-      <c r="G8" s="131"/>
+      <c r="G8" s="70"/>
       <c r="H8" s="2"/>
       <c r="I8" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
@@ -11274,7 +11322,7 @@
       <c r="D9" s="27"/>
       <c r="E9" s="26"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="131"/>
+      <c r="G9" s="70"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
@@ -11292,11 +11340,11 @@
       <c r="D10" s="27"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="131"/>
+      <c r="G10" s="70"/>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="9"/>
@@ -11312,11 +11360,11 @@
       <c r="D11" s="27"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
-      <c r="G11" s="131"/>
+      <c r="G11" s="70"/>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="9"/>
@@ -11332,7 +11380,7 @@
       <c r="D12" s="27"/>
       <c r="E12" s="26"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="131"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
       <c r="J12" s="26"/>
@@ -11350,15 +11398,15 @@
       <c r="D13" s="27"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="124" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="125" t="s">
-        <v>146</v>
-      </c>
-      <c r="J13" s="126"/>
-      <c r="K13" s="127"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="67" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="118" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
       <c r="L13" s="9"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -11372,15 +11420,15 @@
       <c r="D14" s="27"/>
       <c r="E14" s="26"/>
       <c r="F14" s="26"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="124" t="s">
-        <v>135</v>
-      </c>
-      <c r="I14" s="125" t="s">
-        <v>147</v>
-      </c>
-      <c r="J14" s="126"/>
-      <c r="K14" s="127"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="I14" s="118" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" s="119"/>
+      <c r="K14" s="120"/>
       <c r="L14" s="9"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -11394,15 +11442,15 @@
       <c r="D15" s="27"/>
       <c r="E15" s="26"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="124" t="s">
-        <v>136</v>
-      </c>
-      <c r="I15" s="125" t="s">
-        <v>148</v>
-      </c>
-      <c r="J15" s="126"/>
-      <c r="K15" s="127"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="I15" s="118" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="119"/>
+      <c r="K15" s="120"/>
       <c r="L15" s="9"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -11418,13 +11466,13 @@
       <c r="F16" s="2"/>
       <c r="G16" s="29"/>
       <c r="H16" s="65" t="s">
-        <v>137</v>
-      </c>
-      <c r="I16" s="105" t="s">
-        <v>149</v>
-      </c>
-      <c r="J16" s="128"/>
-      <c r="K16" s="106"/>
+        <v>136</v>
+      </c>
+      <c r="I16" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" s="117"/>
+      <c r="K16" s="112"/>
       <c r="L16" s="9"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -11439,12 +11487,12 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="29"/>
-      <c r="H17" s="122" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="116"/>
+      <c r="H17" s="114" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="115"/>
       <c r="L17" s="9"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -11459,13 +11507,13 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="29"/>
-      <c r="H18" s="122" t="s">
+      <c r="H18" s="114" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" s="116"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="66" t="s">
         <v>144</v>
-      </c>
-      <c r="I18" s="123"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="121" t="s">
-        <v>145</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="2"/>
@@ -11482,13 +11530,13 @@
       <c r="F19" s="2"/>
       <c r="G19" s="29"/>
       <c r="H19" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="128" t="s">
-        <v>150</v>
-      </c>
-      <c r="J19" s="128"/>
-      <c r="K19" s="106"/>
+        <v>138</v>
+      </c>
+      <c r="I19" s="117" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" s="117"/>
+      <c r="K19" s="112"/>
       <c r="L19" s="9"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -11503,14 +11551,14 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="122" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="116"/>
-      <c r="J20" s="105" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" s="106"/>
+      <c r="H20" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="I20" s="115"/>
+      <c r="J20" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="K20" s="112"/>
       <c r="L20" s="9"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -11582,7 +11630,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="9"/>
@@ -11815,14 +11863,14 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="29"/>
-      <c r="H37" s="122" t="s">
+      <c r="H37" s="114" t="s">
+        <v>141</v>
+      </c>
+      <c r="I37" s="115"/>
+      <c r="J37" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="I37" s="116"/>
-      <c r="J37" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="K37" s="71"/>
+      <c r="K37" s="76"/>
       <c r="L37" s="9"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -11951,10 +11999,10 @@
       <c r="O1" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="113" t="s">
+      <c r="P1" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" s="67"/>
+      <c r="Q1" s="72"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
@@ -11971,11 +12019,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="79"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="84"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
@@ -12020,17 +12068,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="83" t="s">
+      <c r="E5" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="89"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -12041,15 +12089,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="89"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -12060,15 +12108,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -12116,20 +12164,20 @@
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="86" t="str">
+      <c r="D10" s="91" t="str">
         <f>表紙_外部!D10</f>
         <v>（システム名をここに記入すると全体に反映される）</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="91"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
@@ -12138,17 +12186,17 @@
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
@@ -12157,17 +12205,17 @@
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="91"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
@@ -12177,17 +12225,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="85" t="s">
+      <c r="E13" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -12198,15 +12246,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -12217,15 +12265,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -12236,15 +12284,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
-      <c r="M16" s="85"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -12255,15 +12303,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -12294,15 +12342,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="124"/>
+      <c r="J19" s="124"/>
+      <c r="K19" s="124"/>
+      <c r="L19" s="124"/>
       <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -12315,13 +12363,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
+      <c r="L20" s="124"/>
       <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -12334,13 +12382,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
+      <c r="L21" s="124"/>
       <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -12353,13 +12401,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="124"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="124"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="124"/>
+      <c r="L22" s="124"/>
       <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -12372,13 +12420,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="124"/>
+      <c r="L23" s="124"/>
       <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -12391,13 +12439,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
+      <c r="L24" s="124"/>
       <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -12410,13 +12458,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="112"/>
-      <c r="L25" s="112"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="124"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="124"/>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
+      <c r="L25" s="124"/>
       <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -12470,16 +12518,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="109" t="s">
+      <c r="I28" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="J28" s="110"/>
-      <c r="K28" s="110"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="111"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="123"/>
       <c r="Q28" s="50"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -12491,22 +12539,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="80" t="s">
+      <c r="I29" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="J29" s="81"/>
-      <c r="K29" s="114" t="s">
+      <c r="J29" s="86"/>
+      <c r="K29" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="L29" s="81"/>
-      <c r="M29" s="115" t="s">
+      <c r="L29" s="86"/>
+      <c r="M29" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="N29" s="115"/>
-      <c r="O29" s="115" t="s">
+      <c r="N29" s="127"/>
+      <c r="O29" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="P29" s="118"/>
+      <c r="P29" s="129"/>
       <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12518,14 +12566,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="76"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="76"/>
+      <c r="P30" s="80"/>
       <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12537,14 +12585,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="76"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="76"/>
+      <c r="P31" s="80"/>
       <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12556,14 +12604,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="50"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12575,14 +12623,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="80"/>
       <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -12594,14 +12642,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="76"/>
+      <c r="M34" s="76"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="80"/>
       <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -12613,14 +12661,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="73"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="76"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="78"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="78"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="81"/>
       <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -12676,8 +12724,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12698,26 +12746,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_外部!D10</f>
         <v>（システム名をここに記入すると全体に反映される）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -12797,58 +12845,56 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="71">
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="76">
         <v>3</v>
       </c>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
       <c r="L6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
-      <c r="O6" s="119"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="131"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="71" t="s">
+      <c r="C7" s="130"/>
+      <c r="D7" s="130"/>
+      <c r="E7" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="119" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
+      <c r="I7" s="131" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
       <c r="L7" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="119" t="s">
-        <v>120</v>
-      </c>
-      <c r="N7" s="119"/>
-      <c r="O7" s="119"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
+      <c r="O7" s="131"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -13451,17 +13497,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13481,7 +13527,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:F17"/>
+      <selection activeCell="H17" sqref="H17:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13502,26 +13548,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="95" t="str">
         <f>表紙_外部!D10</f>
         <v>（システム名をここに記入すると全体に反映される）</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="92"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="97"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="100"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -13624,7 +13670,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -13646,10 +13692,10 @@
       <c r="D8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="108"/>
+      <c r="F8" s="109"/>
       <c r="G8" s="35" t="s">
         <v>73</v>
       </c>
@@ -13659,11 +13705,11 @@
       <c r="I8" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="J8" s="108" t="s">
+      <c r="J8" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -13677,16 +13723,22 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="90" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="92"/>
+      <c r="E9" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="97"/>
+      <c r="G9" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="95"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="97"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="2"/>
@@ -13700,16 +13752,20 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="90" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="92"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
+      <c r="E10" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="97"/>
+      <c r="G10" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="92"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="2"/>
@@ -13723,16 +13779,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="E11" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="97"/>
+      <c r="G11" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="92"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="2"/>
@@ -13746,16 +13806,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="E12" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="97"/>
+      <c r="G12" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="I12" s="31"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="92"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="2"/>
@@ -13769,16 +13833,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="92"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
+      <c r="E13" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="97"/>
+      <c r="G13" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="I13" s="31"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="91"/>
-      <c r="L13" s="92"/>
+      <c r="J13" s="95"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="2"/>
@@ -13792,16 +13860,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" s="92"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
+      <c r="E14" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="97"/>
+      <c r="G14" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="I14" s="31"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="92"/>
+      <c r="J14" s="95"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="2"/>
@@ -13815,16 +13887,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="92"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
+      <c r="E15" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="97"/>
+      <c r="G15" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="I15" s="31"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="92"/>
+      <c r="J15" s="95"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="2"/>
@@ -13838,16 +13914,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="90" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="92"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
+      <c r="E16" s="95" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="97"/>
+      <c r="G16" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="I16" s="31"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="92"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="2"/>
@@ -13861,14 +13941,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
+      <c r="E17" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="97"/>
+      <c r="G17" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="I17" s="31"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -13882,14 +13968,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
+      <c r="E18" s="95" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" s="97"/>
+      <c r="G18" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="I18" s="31"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="92"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="97"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -13903,14 +13995,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="E19" s="95" t="s">
+        <v>162</v>
+      </c>
+      <c r="F19" s="97"/>
+      <c r="G19" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>159</v>
+      </c>
       <c r="I19" s="31"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="92"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="97"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -13924,14 +14022,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="92"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="97"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="92"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -13945,14 +14043,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="90"/>
-      <c r="F21" s="92"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="97"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="92"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -13966,14 +14064,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="92"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="97"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="92"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="97"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -13987,14 +14085,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="92"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="97"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="92"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="97"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -14008,14 +14106,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="90"/>
-      <c r="F24" s="92"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="97"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="92"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="97"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -14029,14 +14127,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="92"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="97"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="92"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="97"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -14050,14 +14148,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="90"/>
-      <c r="F26" s="92"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="97"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="92"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="97"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -14317,12 +14415,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -14339,25 +14450,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/完成体を入れろ/PM演習_設計書_赤岡.xlsx
+++ b/完成体を入れろ/PM演習_設計書_赤岡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="14880" windowHeight="7200" tabRatio="732" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="168">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -1277,37 +1277,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本システムを利用した業務・作業の大まかな流れは右図の通りである。</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナガ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>トオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シラバス・過去問表示画面</t>
     <rPh sb="5" eb="8">
       <t>カコモン</t>
@@ -1552,10 +1521,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>blob</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>mime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1584,6 +1549,69 @@
   </si>
   <si>
     <t>varchar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長さ(20)</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longblob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本システムを利用した業務・作業の大まかな流れは下図の通りである。</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シラバス・過去問データ</t>
+    <rPh sb="5" eb="8">
+      <t>カコモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成果物データ</t>
+    <rPh sb="0" eb="3">
+      <t>セイカブツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間割データ</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンワリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2166,7 +2194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2563,6 +2591,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2646,25 +2677,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>481540</xdr:colOff>
+      <xdr:colOff>519763</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>75329</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>425263</xdr:colOff>
+      <xdr:colOff>456066</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>95882</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A6D605A-8B50-488F-9869-577DF8F9A322}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2677,8 +2702,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1243540" y="2731746"/>
-          <a:ext cx="5410015" cy="1496928"/>
+          <a:off x="1357963" y="2857501"/>
+          <a:ext cx="5879903" cy="1581150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2687,48 +2712,454 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>208645</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>18143</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>393145</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19870</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03EA967F-2BA5-41EC-963E-37318FBC5B3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4553859" y="4463143"/>
-          <a:ext cx="3486500" cy="1961156"/>
+          <a:off x="400049" y="5362575"/>
+          <a:ext cx="1095375" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>管理者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="楕円 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="5248275"/>
+          <a:ext cx="695325" cy="581025"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>67311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>568553</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直線矢印コネクタ 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="67" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1485900" y="5744211"/>
+          <a:ext cx="701903" cy="266064"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>27939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="直線矢印コネクタ 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="67" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1476375" y="5533389"/>
+          <a:ext cx="609600" cy="5399"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>94614</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1619250" y="5810250"/>
+          <a:ext cx="666750" cy="647064"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線矢印コネクタ 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="67" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2433638" y="5829300"/>
+          <a:ext cx="223837" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66039</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2819400" y="5571489"/>
+          <a:ext cx="1095375" cy="636"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3962400" y="5410200"/>
+          <a:ext cx="1095375" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ユーザ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7790,8 +8221,8 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8190,7 +8621,6 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
       <c r="P20" s="9"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
@@ -8365,7 +8795,7 @@
       <c r="B30" s="1"/>
       <c r="C30" s="16"/>
       <c r="D30" s="16" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -8442,7 +8872,6 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -8473,9 +8902,11 @@
     <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="C36" s="132" t="s">
+        <v>165</v>
+      </c>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -8510,10 +8941,13 @@
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="D38" s="132" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="132"/>
+      <c r="G38" s="132" t="s">
+        <v>167</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -10512,7 +10946,7 @@
         <v>93</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
@@ -11281,7 +11715,7 @@
         <v>93</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F7" s="26"/>
       <c r="G7" s="68"/>
@@ -11305,7 +11739,7 @@
       <c r="G8" s="70"/>
       <c r="H8" s="2"/>
       <c r="I8" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J8" s="26"/>
       <c r="K8" s="26"/>
@@ -11344,7 +11778,7 @@
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
       <c r="J10" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" s="26"/>
       <c r="L10" s="9"/>
@@ -11364,7 +11798,7 @@
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
       <c r="J11" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K11" s="26"/>
       <c r="L11" s="9"/>
@@ -11400,10 +11834,10 @@
       <c r="F13" s="26"/>
       <c r="G13" s="70"/>
       <c r="H13" s="67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I13" s="118" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J13" s="119"/>
       <c r="K13" s="120"/>
@@ -11422,10 +11856,10 @@
       <c r="F14" s="26"/>
       <c r="G14" s="70"/>
       <c r="H14" s="67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I14" s="118" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J14" s="119"/>
       <c r="K14" s="120"/>
@@ -11444,10 +11878,10 @@
       <c r="F15" s="26"/>
       <c r="G15" s="70"/>
       <c r="H15" s="67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I15" s="118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J15" s="119"/>
       <c r="K15" s="120"/>
@@ -11466,10 +11900,10 @@
       <c r="F16" s="2"/>
       <c r="G16" s="29"/>
       <c r="H16" s="65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I16" s="111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J16" s="117"/>
       <c r="K16" s="112"/>
@@ -11488,7 +11922,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="29"/>
       <c r="H17" s="114" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I17" s="116"/>
       <c r="J17" s="116"/>
@@ -11508,12 +11942,12 @@
       <c r="F18" s="2"/>
       <c r="G18" s="29"/>
       <c r="H18" s="114" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I18" s="116"/>
       <c r="J18" s="115"/>
       <c r="K18" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="2"/>
@@ -11530,10 +11964,10 @@
       <c r="F19" s="2"/>
       <c r="G19" s="29"/>
       <c r="H19" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I19" s="117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J19" s="117"/>
       <c r="K19" s="112"/>
@@ -11552,11 +11986,11 @@
       <c r="F20" s="2"/>
       <c r="G20" s="29"/>
       <c r="H20" s="114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I20" s="115"/>
       <c r="J20" s="111" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K20" s="112"/>
       <c r="L20" s="9"/>
@@ -11630,7 +12064,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="9"/>
@@ -11864,11 +12298,11 @@
       <c r="F37" s="2"/>
       <c r="G37" s="29"/>
       <c r="H37" s="114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I37" s="115"/>
       <c r="J37" s="76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K37" s="76"/>
       <c r="L37" s="9"/>
@@ -12724,7 +13158,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="119" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -12885,7 +13319,7 @@
         <v>49</v>
       </c>
       <c r="I7" s="131" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J7" s="131"/>
       <c r="K7" s="131"/>
@@ -13527,7 +13961,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:H19"/>
+      <selection activeCell="J16" sqref="J16:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13670,7 +14104,7 @@
         <v>58</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -13724,17 +14158,17 @@
         <v>1</v>
       </c>
       <c r="E9" s="95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F9" s="97"/>
       <c r="G9" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I9" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J9" s="95"/>
       <c r="K9" s="96"/>
@@ -13753,17 +14187,19 @@
         <v>2</v>
       </c>
       <c r="E10" s="95" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="97"/>
       <c r="G10" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="95"/>
+      <c r="J10" s="95" t="s">
+        <v>162</v>
+      </c>
       <c r="K10" s="96"/>
       <c r="L10" s="97"/>
       <c r="M10" s="26"/>
@@ -13780,17 +14216,19 @@
         <v>3</v>
       </c>
       <c r="E11" s="95" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="97"/>
       <c r="G11" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="95"/>
+      <c r="J11" s="95" t="s">
+        <v>162</v>
+      </c>
       <c r="K11" s="96"/>
       <c r="L11" s="97"/>
       <c r="M11" s="26"/>
@@ -13807,14 +14245,14 @@
         <v>4</v>
       </c>
       <c r="E12" s="95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="97"/>
       <c r="G12" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="95"/>
@@ -13834,14 +14272,14 @@
         <v>5</v>
       </c>
       <c r="E13" s="95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="97"/>
       <c r="G13" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H13" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="95"/>
@@ -13861,14 +14299,14 @@
         <v>6</v>
       </c>
       <c r="E14" s="95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F14" s="97"/>
       <c r="G14" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I14" s="31"/>
       <c r="J14" s="95"/>
@@ -13888,14 +14326,14 @@
         <v>7</v>
       </c>
       <c r="E15" s="95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F15" s="97"/>
       <c r="G15" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I15" s="31"/>
       <c r="J15" s="95"/>
@@ -13915,14 +14353,14 @@
         <v>8</v>
       </c>
       <c r="E16" s="95" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16" s="97"/>
       <c r="G16" s="31" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H16" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="95"/>
@@ -13942,17 +14380,19 @@
         <v>9</v>
       </c>
       <c r="E17" s="95" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F17" s="97"/>
       <c r="G17" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H17" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I17" s="31"/>
-      <c r="J17" s="95"/>
+      <c r="J17" s="95" t="s">
+        <v>162</v>
+      </c>
       <c r="K17" s="96"/>
       <c r="L17" s="97"/>
       <c r="M17" s="3"/>
@@ -13969,14 +14409,14 @@
         <v>10</v>
       </c>
       <c r="E18" s="95" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F18" s="97"/>
       <c r="G18" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H18" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I18" s="31"/>
       <c r="J18" s="95"/>
@@ -13996,17 +14436,19 @@
         <v>11</v>
       </c>
       <c r="E19" s="95" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F19" s="97"/>
       <c r="G19" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I19" s="31"/>
-      <c r="J19" s="95"/>
+      <c r="J19" s="95" t="s">
+        <v>162</v>
+      </c>
       <c r="K19" s="96"/>
       <c r="L19" s="97"/>
       <c r="M19" s="2"/>
